--- a/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/2_five_bus_radial_grid_ynyn_gen_pf_sc_results_2_bus_resonant.xlsx
+++ b/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/2_five_bus_radial_grid_ynyn_gen_pf_sc_results_2_bus_resonant.xlsx
@@ -752,22 +752,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.070094227532346</v>
+        <v>1.070094227532368</v>
       </c>
       <c r="O2">
-        <v>0.9380319009574459</v>
+        <v>0.9380319009574009</v>
       </c>
       <c r="P2">
-        <v>1.053494350468705</v>
+        <v>1.053494350468728</v>
       </c>
       <c r="Q2">
-        <v>25.98965116739708</v>
+        <v>25.98965116739495</v>
       </c>
       <c r="R2">
-        <v>-91.13019952201601</v>
+        <v>-91.13019952201617</v>
       </c>
       <c r="S2">
-        <v>153.5693903185486</v>
+        <v>153.5693903185504</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -811,22 +811,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.031611214669993</v>
+        <v>1.031611214670015</v>
       </c>
       <c r="O3">
-        <v>0.2917056037512948</v>
+        <v>0.2917056037512749</v>
       </c>
       <c r="P3">
-        <v>0.8906876332644379</v>
+        <v>0.8906876332644862</v>
       </c>
       <c r="Q3">
-        <v>7.091324389062589</v>
+        <v>7.091324389061996</v>
       </c>
       <c r="R3">
-        <v>-119.1713773550799</v>
+        <v>-119.1713773550764</v>
       </c>
       <c r="S3">
-        <v>171.7794727726615</v>
+        <v>171.779472772662</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -837,55 +837,55 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.709154423937071</v>
+        <v>3.70915442393685</v>
       </c>
       <c r="D4">
-        <v>3.709154423937071</v>
+        <v>3.70915442393685</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>42.82962610251919</v>
+        <v>42.82962610251664</v>
       </c>
       <c r="G4">
-        <v>42.82962610251919</v>
+        <v>42.82962610251664</v>
       </c>
       <c r="H4">
-        <v>3.756194024324173</v>
+        <v>0.7039710804487342</v>
       </c>
       <c r="I4">
-        <v>2.351750953160726</v>
+        <v>-1166.347687233957</v>
       </c>
       <c r="J4">
-        <v>0.6277319163570267</v>
+        <v>0.6277319164170393</v>
       </c>
       <c r="K4">
-        <v>2.898438697948214</v>
+        <v>2.898438698064163</v>
       </c>
       <c r="L4">
-        <v>0.6277319163638756</v>
+        <v>0.6277319163551763</v>
       </c>
       <c r="M4">
-        <v>2.898438697960007</v>
+        <v>2.898438697974897</v>
       </c>
       <c r="N4">
-        <v>0.952627964803209</v>
+        <v>0.952627964803233</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.9526279648047552</v>
+        <v>0.9526279648048037</v>
       </c>
       <c r="Q4">
-        <v>-1.246552855372904E-11</v>
+        <v>-1.235995963431423E-11</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>-179.9999999999812</v>
+        <v>-179.9999999999817</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -929,22 +929,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9526279647942854</v>
+        <v>0.9526279647943093</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.952627964813679</v>
+        <v>0.9526279648137272</v>
       </c>
       <c r="Q5">
-        <v>4.60573654557223E-10</v>
+        <v>4.606840844166443E-10</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999999995312</v>
+        <v>179.9999999995307</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9526279647942854</v>
+        <v>0.9526279647943093</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.952627964813679</v>
+        <v>0.9526279648137272</v>
       </c>
       <c r="Q6">
-        <v>4.605704837932582E-10</v>
+        <v>4.606716066476677E-10</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>179.9999999995312</v>
+        <v>179.9999999995306</v>
       </c>
     </row>
   </sheetData>
@@ -1119,22 +1119,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.09687854193859</v>
+        <v>1.096878541938585</v>
       </c>
       <c r="O2">
-        <v>1.029837663667628</v>
+        <v>1.029837663667599</v>
       </c>
       <c r="P2">
-        <v>1.068709665745342</v>
+        <v>1.068709665745341</v>
       </c>
       <c r="Q2">
-        <v>27.98323699101546</v>
+        <v>27.9832369910147</v>
       </c>
       <c r="R2">
-        <v>-91.78162348160745</v>
+        <v>-91.78162348160727</v>
       </c>
       <c r="S2">
-        <v>151.2113112851477</v>
+        <v>151.2113112851485</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1178,22 +1178,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.109634423210918</v>
+        <v>1.109634423210911</v>
       </c>
       <c r="O3">
-        <v>0.7617779018710723</v>
+        <v>0.7617779018710442</v>
       </c>
       <c r="P3">
-        <v>0.934807098486952</v>
+        <v>0.934807098486958</v>
       </c>
       <c r="Q3">
-        <v>19.43181595267038</v>
+        <v>19.43181595266978</v>
       </c>
       <c r="R3">
-        <v>-104.2565908665021</v>
+        <v>-104.2565908665016</v>
       </c>
       <c r="S3">
-        <v>156.7400468039737</v>
+        <v>156.7400468039746</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1204,55 +1204,55 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1.763086650675505</v>
+        <v>1.763086650675465</v>
       </c>
       <c r="D4">
-        <v>1.763086650675505</v>
+        <v>1.763086650675465</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>20.35837104744277</v>
+        <v>20.35837104744231</v>
       </c>
       <c r="G4">
-        <v>20.35837104744277</v>
+        <v>20.35837104744231</v>
       </c>
       <c r="H4">
-        <v>3.756194024324173</v>
+        <v>0.7039710804487342</v>
       </c>
       <c r="I4">
-        <v>2.351750953160726</v>
+        <v>-1166.347687233957</v>
       </c>
       <c r="J4">
-        <v>0.6277319163570267</v>
+        <v>0.6277319164170393</v>
       </c>
       <c r="K4">
-        <v>2.898438697948214</v>
+        <v>2.898438698064163</v>
       </c>
       <c r="L4">
-        <v>0.6277319163638756</v>
+        <v>0.6277319163551763</v>
       </c>
       <c r="M4">
-        <v>2.898438697960007</v>
+        <v>2.898438697974897</v>
       </c>
       <c r="N4">
-        <v>1.075852895209832</v>
+        <v>1.075852895209825</v>
       </c>
       <c r="O4">
-        <v>0.6233452632551819</v>
+        <v>0.6233452632551566</v>
       </c>
       <c r="P4">
-        <v>0.9229411060011535</v>
+        <v>0.9229411060011623</v>
       </c>
       <c r="Q4">
-        <v>16.25665454943077</v>
+        <v>16.25665454943023</v>
       </c>
       <c r="R4">
-        <v>-104.9129785376843</v>
+        <v>-104.9129785376834</v>
       </c>
       <c r="S4">
-        <v>160.9543898286496</v>
+        <v>160.9543898286505</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -1296,22 +1296,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.075852895205487</v>
+        <v>1.07585289520548</v>
       </c>
       <c r="O5">
-        <v>0.623345263256875</v>
+        <v>0.6233452632568497</v>
       </c>
       <c r="P5">
-        <v>0.9229411060067901</v>
+        <v>0.922941106006799</v>
       </c>
       <c r="Q5">
-        <v>16.25665454962344</v>
+        <v>16.2566545496229</v>
       </c>
       <c r="R5">
-        <v>-104.9129785366566</v>
+        <v>-104.9129785366557</v>
       </c>
       <c r="S5">
-        <v>160.9543898286222</v>
+        <v>160.9543898286231</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1355,22 +1355,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.075852895205487</v>
+        <v>1.07585289520548</v>
       </c>
       <c r="O6">
-        <v>0.6233452632568749</v>
+        <v>0.6233452632568497</v>
       </c>
       <c r="P6">
-        <v>0.9229411060067901</v>
+        <v>0.922941106006799</v>
       </c>
       <c r="Q6">
-        <v>16.25665454962343</v>
+        <v>16.2566545496229</v>
       </c>
       <c r="R6">
-        <v>-104.9129785366566</v>
+        <v>-104.9129785366557</v>
       </c>
       <c r="S6">
-        <v>160.9543898286222</v>
+        <v>160.9543898286231</v>
       </c>
     </row>
   </sheetData>
@@ -1486,22 +1486,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.09687854193859</v>
+        <v>1.096878541938585</v>
       </c>
       <c r="O2">
-        <v>1.029837663667628</v>
+        <v>1.029837663667599</v>
       </c>
       <c r="P2">
-        <v>1.068709665745342</v>
+        <v>1.068709665745341</v>
       </c>
       <c r="Q2">
-        <v>27.98323699101546</v>
+        <v>27.9832369910147</v>
       </c>
       <c r="R2">
-        <v>-91.78162348160745</v>
+        <v>-91.78162348160727</v>
       </c>
       <c r="S2">
-        <v>151.2113112851477</v>
+        <v>151.2113112851485</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1545,22 +1545,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.109634423210918</v>
+        <v>1.109634423210911</v>
       </c>
       <c r="O3">
-        <v>0.7617779018710723</v>
+        <v>0.7617779018710442</v>
       </c>
       <c r="P3">
-        <v>0.934807098486952</v>
+        <v>0.934807098486958</v>
       </c>
       <c r="Q3">
-        <v>19.43181595267038</v>
+        <v>19.43181595266978</v>
       </c>
       <c r="R3">
-        <v>-104.2565908665021</v>
+        <v>-104.2565908665016</v>
       </c>
       <c r="S3">
-        <v>156.7400468039737</v>
+        <v>156.7400468039746</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1571,55 +1571,55 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1.763086650675505</v>
+        <v>1.763086650675465</v>
       </c>
       <c r="D4">
-        <v>1.763086650675505</v>
+        <v>1.763086650675465</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>20.35837104744277</v>
+        <v>20.35837104744231</v>
       </c>
       <c r="G4">
-        <v>20.35837104744277</v>
+        <v>20.35837104744231</v>
       </c>
       <c r="H4">
-        <v>3.756194024324173</v>
+        <v>0.7039710804487342</v>
       </c>
       <c r="I4">
-        <v>2.351750953160726</v>
+        <v>-1166.347687233957</v>
       </c>
       <c r="J4">
-        <v>0.6277319163570267</v>
+        <v>0.6277319164170393</v>
       </c>
       <c r="K4">
-        <v>2.898438697948214</v>
+        <v>2.898438698064163</v>
       </c>
       <c r="L4">
-        <v>0.6277319163638756</v>
+        <v>0.6277319163551763</v>
       </c>
       <c r="M4">
-        <v>2.898438697960007</v>
+        <v>2.898438697974897</v>
       </c>
       <c r="N4">
-        <v>1.075852895209832</v>
+        <v>1.075852895209825</v>
       </c>
       <c r="O4">
-        <v>0.6233452632551819</v>
+        <v>0.6233452632551566</v>
       </c>
       <c r="P4">
-        <v>0.9229411060011535</v>
+        <v>0.9229411060011623</v>
       </c>
       <c r="Q4">
-        <v>16.25665454943077</v>
+        <v>16.25665454943023</v>
       </c>
       <c r="R4">
-        <v>-104.9129785376843</v>
+        <v>-104.9129785376834</v>
       </c>
       <c r="S4">
-        <v>160.9543898286496</v>
+        <v>160.9543898286505</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -1663,22 +1663,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.075852895205487</v>
+        <v>1.07585289520548</v>
       </c>
       <c r="O5">
-        <v>0.623345263256875</v>
+        <v>0.6233452632568497</v>
       </c>
       <c r="P5">
-        <v>0.9229411060067901</v>
+        <v>0.922941106006799</v>
       </c>
       <c r="Q5">
-        <v>16.25665454962344</v>
+        <v>16.2566545496229</v>
       </c>
       <c r="R5">
-        <v>-104.9129785366566</v>
+        <v>-104.9129785366557</v>
       </c>
       <c r="S5">
-        <v>160.9543898286222</v>
+        <v>160.9543898286231</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1722,22 +1722,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.075852895205487</v>
+        <v>1.07585289520548</v>
       </c>
       <c r="O6">
-        <v>0.6233452632568749</v>
+        <v>0.6233452632568497</v>
       </c>
       <c r="P6">
-        <v>0.9229411060067901</v>
+        <v>0.922941106006799</v>
       </c>
       <c r="Q6">
-        <v>16.25665454962343</v>
+        <v>16.2566545496229</v>
       </c>
       <c r="R6">
-        <v>-104.9129785366566</v>
+        <v>-104.9129785366557</v>
       </c>
       <c r="S6">
-        <v>160.9543898286222</v>
+        <v>160.9543898286231</v>
       </c>
     </row>
   </sheetData>
@@ -1853,22 +1853,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9821968591989456</v>
+        <v>0.9821968591989131</v>
       </c>
       <c r="O2">
-        <v>0.850004952541402</v>
+        <v>0.8500049525413512</v>
       </c>
       <c r="P2">
-        <v>0.9468598309457216</v>
+        <v>0.9468598309457105</v>
       </c>
       <c r="Q2">
-        <v>25.60992326808852</v>
+        <v>25.60992326808934</v>
       </c>
       <c r="R2">
-        <v>-92.65381631331513</v>
+        <v>-92.65381631331216</v>
       </c>
       <c r="S2">
-        <v>153.3606354236809</v>
+        <v>153.3606354236838</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1912,22 +1912,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9900703401370794</v>
+        <v>0.9900703401370429</v>
       </c>
       <c r="O3">
-        <v>0.3617201835030117</v>
+        <v>0.361720183502963</v>
       </c>
       <c r="P3">
-        <v>0.7649715466411113</v>
+        <v>0.7649715466411195</v>
       </c>
       <c r="Q3">
-        <v>8.150888684274463</v>
+        <v>8.150888684275559</v>
       </c>
       <c r="R3">
-        <v>-129.0915432241894</v>
+        <v>-129.0915432241848</v>
       </c>
       <c r="S3">
-        <v>169.4262793833645</v>
+        <v>169.4262793833671</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1938,55 +1938,55 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.11908582551553</v>
+        <v>3.119085825515374</v>
       </c>
       <c r="D4">
-        <v>3.11908582551553</v>
+        <v>3.119085825515374</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>36.01610081973875</v>
+        <v>36.01610081973694</v>
       </c>
       <c r="G4">
-        <v>36.01610081973875</v>
+        <v>36.01610081973694</v>
       </c>
       <c r="H4">
-        <v>7.179198268248217</v>
+        <v>1.343077675919513</v>
       </c>
       <c r="I4">
-        <v>2.381328006872917</v>
+        <v>-1166.32973054222</v>
       </c>
       <c r="J4">
-        <v>1.113751880257003</v>
+        <v>1.113751880300334</v>
       </c>
       <c r="K4">
-        <v>3.00639754378702</v>
+        <v>3.00639754387473</v>
       </c>
       <c r="L4">
-        <v>1.113751880233073</v>
+        <v>1.113751880225172</v>
       </c>
       <c r="M4">
-        <v>3.006397543745576</v>
+        <v>3.006397543758974</v>
       </c>
       <c r="N4">
-        <v>0.866025403788006</v>
+        <v>0.8660254037879731</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8660254037883344</v>
+        <v>0.866025403788342</v>
       </c>
       <c r="Q4">
-        <v>1.723261099357276E-10</v>
+        <v>1.736565733504517E-10</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>179.9999999998195</v>
+        <v>179.9999999998212</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -2030,22 +2030,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8660254037798935</v>
+        <v>0.8660254037798608</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8660254037964469</v>
+        <v>0.8660254037964547</v>
       </c>
       <c r="Q5">
-        <v>1.080558731395635E-09</v>
+        <v>1.081884033415708E-09</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999999989112</v>
+        <v>179.999999998913</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2089,22 +2089,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8660254037798933</v>
+        <v>0.8660254037798608</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8660254037964467</v>
+        <v>0.8660254037964547</v>
       </c>
       <c r="Q6">
-        <v>1.080552394238472E-09</v>
+        <v>1.081891703241026E-09</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>179.9999999989112</v>
+        <v>179.999999998913</v>
       </c>
     </row>
   </sheetData>
@@ -2220,22 +2220,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9821968591989456</v>
+        <v>0.9821968591989131</v>
       </c>
       <c r="O2">
-        <v>0.850004952541402</v>
+        <v>0.8500049525413512</v>
       </c>
       <c r="P2">
-        <v>0.9468598309457216</v>
+        <v>0.9468598309457105</v>
       </c>
       <c r="Q2">
-        <v>25.60992326808852</v>
+        <v>25.60992326808934</v>
       </c>
       <c r="R2">
-        <v>-92.65381631331513</v>
+        <v>-92.65381631331216</v>
       </c>
       <c r="S2">
-        <v>153.3606354236809</v>
+        <v>153.3606354236838</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -2279,22 +2279,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9900703401370794</v>
+        <v>0.9900703401370429</v>
       </c>
       <c r="O3">
-        <v>0.3617201835030117</v>
+        <v>0.361720183502963</v>
       </c>
       <c r="P3">
-        <v>0.7649715466411113</v>
+        <v>0.7649715466411195</v>
       </c>
       <c r="Q3">
-        <v>8.150888684274463</v>
+        <v>8.150888684275559</v>
       </c>
       <c r="R3">
-        <v>-129.0915432241894</v>
+        <v>-129.0915432241848</v>
       </c>
       <c r="S3">
-        <v>169.4262793833645</v>
+        <v>169.4262793833671</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -2305,55 +2305,55 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.11908582551553</v>
+        <v>3.119085825515374</v>
       </c>
       <c r="D4">
-        <v>3.11908582551553</v>
+        <v>3.119085825515374</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>36.01610081973875</v>
+        <v>36.01610081973694</v>
       </c>
       <c r="G4">
-        <v>36.01610081973875</v>
+        <v>36.01610081973694</v>
       </c>
       <c r="H4">
-        <v>7.179198268248217</v>
+        <v>1.343077675919513</v>
       </c>
       <c r="I4">
-        <v>2.381328006872917</v>
+        <v>-1166.32973054222</v>
       </c>
       <c r="J4">
-        <v>1.113751880257003</v>
+        <v>1.113751880300334</v>
       </c>
       <c r="K4">
-        <v>3.00639754378702</v>
+        <v>3.00639754387473</v>
       </c>
       <c r="L4">
-        <v>1.113751880233073</v>
+        <v>1.113751880225172</v>
       </c>
       <c r="M4">
-        <v>3.006397543745576</v>
+        <v>3.006397543758974</v>
       </c>
       <c r="N4">
-        <v>0.866025403788006</v>
+        <v>0.8660254037879731</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8660254037883344</v>
+        <v>0.866025403788342</v>
       </c>
       <c r="Q4">
-        <v>1.723261099357276E-10</v>
+        <v>1.736565733504517E-10</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>179.9999999998195</v>
+        <v>179.9999999998212</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -2397,22 +2397,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8660254037798935</v>
+        <v>0.8660254037798608</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8660254037964469</v>
+        <v>0.8660254037964547</v>
       </c>
       <c r="Q5">
-        <v>1.080558731395635E-09</v>
+        <v>1.081884033415708E-09</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999999989112</v>
+        <v>179.999999998913</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2456,22 +2456,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8660254037798933</v>
+        <v>0.8660254037798608</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8660254037964467</v>
+        <v>0.8660254037964547</v>
       </c>
       <c r="Q6">
-        <v>1.080552394238472E-09</v>
+        <v>1.081891703241026E-09</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>179.9999999989112</v>
+        <v>179.999999998913</v>
       </c>
     </row>
   </sheetData>
@@ -2587,22 +2587,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9991077190359253</v>
+        <v>0.9991077190359067</v>
       </c>
       <c r="O2">
-        <v>0.9333641900095898</v>
+        <v>0.9333641900095615</v>
       </c>
       <c r="P2">
-        <v>0.9681777323222119</v>
+        <v>0.9681777323222075</v>
       </c>
       <c r="Q2">
-        <v>27.8246974452445</v>
+        <v>27.82469744524498</v>
       </c>
       <c r="R2">
-        <v>-92.15705182751171</v>
+        <v>-92.15705182750995</v>
       </c>
       <c r="S2">
-        <v>151.2048467246548</v>
+        <v>151.2048467246564</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -2646,22 +2646,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.018434506766489</v>
+        <v>1.018434506766468</v>
       </c>
       <c r="O3">
-        <v>0.7086876959566594</v>
+        <v>0.7086876959566293</v>
       </c>
       <c r="P3">
-        <v>0.8449321159941322</v>
+        <v>0.8449321159941331</v>
       </c>
       <c r="Q3">
-        <v>19.61176266474867</v>
+        <v>19.61176266474919</v>
       </c>
       <c r="R3">
-        <v>-105.2709110729077</v>
+        <v>-105.2709110729055</v>
       </c>
       <c r="S3">
-        <v>156.1359474819764</v>
+        <v>156.1359474819781</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -2672,55 +2672,55 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1.518298439092605</v>
+        <v>1.518298439092568</v>
       </c>
       <c r="D4">
-        <v>1.518298439092605</v>
+        <v>1.518298439092568</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>17.53180025040608</v>
+        <v>17.53180025040566</v>
       </c>
       <c r="G4">
-        <v>17.53180025040608</v>
+        <v>17.53180025040566</v>
       </c>
       <c r="H4">
-        <v>7.179198268248217</v>
+        <v>1.343077675919513</v>
       </c>
       <c r="I4">
-        <v>2.381328006872917</v>
+        <v>-1166.32973054222</v>
       </c>
       <c r="J4">
-        <v>1.113751880257003</v>
+        <v>1.113751880300334</v>
       </c>
       <c r="K4">
-        <v>3.00639754378702</v>
+        <v>3.00639754387473</v>
       </c>
       <c r="L4">
-        <v>1.113751880233073</v>
+        <v>1.113751880225172</v>
       </c>
       <c r="M4">
-        <v>3.006397543745576</v>
+        <v>3.006397543758974</v>
       </c>
       <c r="N4">
-        <v>0.9573399675119606</v>
+        <v>0.9573399675119405</v>
       </c>
       <c r="O4">
-        <v>0.5367995610775461</v>
+        <v>0.5367995610775221</v>
       </c>
       <c r="P4">
-        <v>0.8529812840863313</v>
+        <v>0.8529812840863349</v>
       </c>
       <c r="Q4">
-        <v>15.93288697155594</v>
+        <v>15.93288697155651</v>
       </c>
       <c r="R4">
-        <v>-101.7238138495564</v>
+        <v>-101.7238138495534</v>
       </c>
       <c r="S4">
-        <v>162.0554462537874</v>
+        <v>162.055446253789</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -2764,22 +2764,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9573399675083649</v>
+        <v>0.9573399675083447</v>
       </c>
       <c r="O5">
-        <v>0.536799561086394</v>
+        <v>0.5367995610863701</v>
       </c>
       <c r="P5">
-        <v>0.8529812840931511</v>
+        <v>0.8529812840931547</v>
       </c>
       <c r="Q5">
-        <v>15.93288697196764</v>
+        <v>15.93288697196821</v>
       </c>
       <c r="R5">
-        <v>-101.7238138481949</v>
+        <v>-101.7238138481919</v>
       </c>
       <c r="S5">
-        <v>162.0554462535384</v>
+        <v>162.0554462535401</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2823,22 +2823,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9573399675083651</v>
+        <v>0.9573399675083447</v>
       </c>
       <c r="O6">
-        <v>0.536799561086394</v>
+        <v>0.5367995610863701</v>
       </c>
       <c r="P6">
-        <v>0.8529812840931511</v>
+        <v>0.8529812840931547</v>
       </c>
       <c r="Q6">
-        <v>15.93288697196764</v>
+        <v>15.93288697196821</v>
       </c>
       <c r="R6">
-        <v>-101.7238138481949</v>
+        <v>-101.7238138481919</v>
       </c>
       <c r="S6">
-        <v>162.0554462535384</v>
+        <v>162.0554462535401</v>
       </c>
     </row>
   </sheetData>
@@ -2954,22 +2954,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9991077190359253</v>
+        <v>0.9991077190359067</v>
       </c>
       <c r="O2">
-        <v>0.9333641900095898</v>
+        <v>0.9333641900095615</v>
       </c>
       <c r="P2">
-        <v>0.9681777323222119</v>
+        <v>0.9681777323222075</v>
       </c>
       <c r="Q2">
-        <v>27.8246974452445</v>
+        <v>27.82469744524498</v>
       </c>
       <c r="R2">
-        <v>-92.15705182751171</v>
+        <v>-92.15705182750995</v>
       </c>
       <c r="S2">
-        <v>151.2048467246548</v>
+        <v>151.2048467246564</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -3013,22 +3013,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.018434506766489</v>
+        <v>1.018434506766468</v>
       </c>
       <c r="O3">
-        <v>0.7086876959566594</v>
+        <v>0.7086876959566293</v>
       </c>
       <c r="P3">
-        <v>0.8449321159941322</v>
+        <v>0.8449321159941331</v>
       </c>
       <c r="Q3">
-        <v>19.61176266474867</v>
+        <v>19.61176266474919</v>
       </c>
       <c r="R3">
-        <v>-105.2709110729077</v>
+        <v>-105.2709110729055</v>
       </c>
       <c r="S3">
-        <v>156.1359474819764</v>
+        <v>156.1359474819781</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -3039,55 +3039,55 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1.518298439092605</v>
+        <v>1.518298439092568</v>
       </c>
       <c r="D4">
-        <v>1.518298439092605</v>
+        <v>1.518298439092568</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>17.53180025040608</v>
+        <v>17.53180025040566</v>
       </c>
       <c r="G4">
-        <v>17.53180025040608</v>
+        <v>17.53180025040566</v>
       </c>
       <c r="H4">
-        <v>7.179198268248217</v>
+        <v>1.343077675919513</v>
       </c>
       <c r="I4">
-        <v>2.381328006872917</v>
+        <v>-1166.32973054222</v>
       </c>
       <c r="J4">
-        <v>1.113751880257003</v>
+        <v>1.113751880300334</v>
       </c>
       <c r="K4">
-        <v>3.00639754378702</v>
+        <v>3.00639754387473</v>
       </c>
       <c r="L4">
-        <v>1.113751880233073</v>
+        <v>1.113751880225172</v>
       </c>
       <c r="M4">
-        <v>3.006397543745576</v>
+        <v>3.006397543758974</v>
       </c>
       <c r="N4">
-        <v>0.9573399675119606</v>
+        <v>0.9573399675119405</v>
       </c>
       <c r="O4">
-        <v>0.5367995610775461</v>
+        <v>0.5367995610775221</v>
       </c>
       <c r="P4">
-        <v>0.8529812840863313</v>
+        <v>0.8529812840863349</v>
       </c>
       <c r="Q4">
-        <v>15.93288697155594</v>
+        <v>15.93288697155651</v>
       </c>
       <c r="R4">
-        <v>-101.7238138495564</v>
+        <v>-101.7238138495534</v>
       </c>
       <c r="S4">
-        <v>162.0554462537874</v>
+        <v>162.055446253789</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -3131,22 +3131,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9573399675083649</v>
+        <v>0.9573399675083447</v>
       </c>
       <c r="O5">
-        <v>0.536799561086394</v>
+        <v>0.5367995610863701</v>
       </c>
       <c r="P5">
-        <v>0.8529812840931511</v>
+        <v>0.8529812840931547</v>
       </c>
       <c r="Q5">
-        <v>15.93288697196764</v>
+        <v>15.93288697196821</v>
       </c>
       <c r="R5">
-        <v>-101.7238138481949</v>
+        <v>-101.7238138481919</v>
       </c>
       <c r="S5">
-        <v>162.0554462535384</v>
+        <v>162.0554462535401</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -3190,22 +3190,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9573399675083651</v>
+        <v>0.9573399675083447</v>
       </c>
       <c r="O6">
-        <v>0.536799561086394</v>
+        <v>0.5367995610863701</v>
       </c>
       <c r="P6">
-        <v>0.8529812840931511</v>
+        <v>0.8529812840931547</v>
       </c>
       <c r="Q6">
-        <v>15.93288697196764</v>
+        <v>15.93288697196821</v>
       </c>
       <c r="R6">
-        <v>-101.7238138481949</v>
+        <v>-101.7238138481919</v>
       </c>
       <c r="S6">
-        <v>162.0554462535384</v>
+        <v>162.0554462535401</v>
       </c>
     </row>
   </sheetData>
@@ -3324,22 +3324,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.012615262245121</v>
+        <v>1.100585914143305</v>
       </c>
       <c r="O2">
-        <v>1.100000023848476</v>
+        <v>1.100000023841843</v>
       </c>
       <c r="P2">
-        <v>1.053349696462603</v>
+        <v>1.100658961668933</v>
       </c>
       <c r="Q2">
-        <v>30.35604470721004</v>
+        <v>29.97799905367118</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999642</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>146.0507005088034</v>
+        <v>150.0154095427547</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -3386,22 +3386,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6398906507099607</v>
+        <v>1.103192033887539</v>
       </c>
       <c r="O3">
-        <v>1.100000023848398</v>
+        <v>1.100000023841819</v>
       </c>
       <c r="P3">
-        <v>0.9482243209570351</v>
+        <v>1.103374748008485</v>
       </c>
       <c r="Q3">
-        <v>30.77619526064566</v>
+        <v>29.89335306949159</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999652</v>
+        <v>-89.99999999999795</v>
       </c>
       <c r="S3">
-        <v>125.4361823886466</v>
+        <v>150.090146607946</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -3412,7 +3412,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>3.983205985585159</v>
+        <v>0.03283360276746022</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -3421,7 +3421,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>45.9941009603064</v>
+        <v>0.379129787925168</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -3430,43 +3430,43 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>3.756194024324208</v>
+        <v>0.703971080450207</v>
       </c>
       <c r="I4">
-        <v>2.351750953160543</v>
+        <v>-1166.347687233957</v>
       </c>
       <c r="J4">
-        <v>0.6277319162687571</v>
+        <v>0.6277319161384742</v>
       </c>
       <c r="K4">
-        <v>2.898438697960029</v>
+        <v>2.898438697954031</v>
       </c>
       <c r="L4">
-        <v>0.6277319163640337</v>
+        <v>0.6277319163812134</v>
       </c>
       <c r="M4">
-        <v>2.898438697959957</v>
+        <v>2.898438697959627</v>
       </c>
       <c r="N4">
-        <v>0.530790846994617</v>
+        <v>1.103604911590436</v>
       </c>
       <c r="O4">
-        <v>1.100000023848398</v>
+        <v>1.100000023841819</v>
       </c>
       <c r="P4">
-        <v>0.8442536647143235</v>
+        <v>1.104639601414835</v>
       </c>
       <c r="Q4">
-        <v>41.84201685276582</v>
+        <v>29.82983126617296</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999628</v>
+        <v>-89.99999999999795</v>
       </c>
       <c r="S4">
-        <v>117.9292480534404</v>
+        <v>150.076705750475</v>
       </c>
       <c r="T4">
-        <v>3.983205985585158</v>
+        <v>0.03283360276746022</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -3510,22 +3510,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.5307908470060845</v>
+        <v>1.103604911590332</v>
       </c>
       <c r="O5">
-        <v>1.100000023848398</v>
+        <v>1.100000023841819</v>
       </c>
       <c r="P5">
-        <v>0.8442536647061036</v>
+        <v>1.104639601414793</v>
       </c>
       <c r="Q5">
-        <v>41.84201685337329</v>
+        <v>29.82983126617234</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999629</v>
+        <v>-89.99999999999795</v>
       </c>
       <c r="S5">
-        <v>117.929248054104</v>
+        <v>150.07670575047</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -3572,22 +3572,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5307908470060845</v>
+        <v>1.103604911590331</v>
       </c>
       <c r="O6">
-        <v>1.100000023848398</v>
+        <v>1.100000023841819</v>
       </c>
       <c r="P6">
-        <v>0.8442536647061036</v>
+        <v>1.104639601414793</v>
       </c>
       <c r="Q6">
-        <v>41.84201685337329</v>
+        <v>29.82983126617235</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999628</v>
+        <v>-89.99999999999795</v>
       </c>
       <c r="S6">
-        <v>117.929248054104</v>
+        <v>150.07670575047</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -3709,22 +3709,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.012615262245121</v>
+        <v>1.100585914143305</v>
       </c>
       <c r="O2">
-        <v>1.100000023848476</v>
+        <v>1.100000023841843</v>
       </c>
       <c r="P2">
-        <v>1.053349696462603</v>
+        <v>1.100658961668933</v>
       </c>
       <c r="Q2">
-        <v>30.35604470721004</v>
+        <v>29.97799905367118</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999642</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>146.0507005088034</v>
+        <v>150.0154095427547</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -3771,22 +3771,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6398906507099607</v>
+        <v>1.103192033887539</v>
       </c>
       <c r="O3">
-        <v>1.100000023848398</v>
+        <v>1.100000023841819</v>
       </c>
       <c r="P3">
-        <v>0.9482243209570351</v>
+        <v>1.103374748008485</v>
       </c>
       <c r="Q3">
-        <v>30.77619526064566</v>
+        <v>29.89335306949159</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999652</v>
+        <v>-89.99999999999795</v>
       </c>
       <c r="S3">
-        <v>125.4361823886466</v>
+        <v>150.090146607946</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -3797,7 +3797,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>3.983205985585159</v>
+        <v>0.03283360276746022</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>45.9941009603064</v>
+        <v>0.379129787925168</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -3815,43 +3815,43 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>3.756194024324208</v>
+        <v>0.703971080450207</v>
       </c>
       <c r="I4">
-        <v>2.351750953160543</v>
+        <v>-1166.347687233957</v>
       </c>
       <c r="J4">
-        <v>0.6277319162687571</v>
+        <v>0.6277319161384742</v>
       </c>
       <c r="K4">
-        <v>2.898438697960029</v>
+        <v>2.898438697954031</v>
       </c>
       <c r="L4">
-        <v>0.6277319163640337</v>
+        <v>0.6277319163812134</v>
       </c>
       <c r="M4">
-        <v>2.898438697959957</v>
+        <v>2.898438697959627</v>
       </c>
       <c r="N4">
-        <v>0.530790846994617</v>
+        <v>1.103604911590436</v>
       </c>
       <c r="O4">
-        <v>1.100000023848398</v>
+        <v>1.100000023841819</v>
       </c>
       <c r="P4">
-        <v>0.8442536647143235</v>
+        <v>1.104639601414835</v>
       </c>
       <c r="Q4">
-        <v>41.84201685276582</v>
+        <v>29.82983126617296</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999628</v>
+        <v>-89.99999999999795</v>
       </c>
       <c r="S4">
-        <v>117.9292480534404</v>
+        <v>150.076705750475</v>
       </c>
       <c r="T4">
-        <v>3.983205985585158</v>
+        <v>0.03283360276746022</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -3895,22 +3895,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.5307908470060845</v>
+        <v>1.103604911590332</v>
       </c>
       <c r="O5">
-        <v>1.100000023848398</v>
+        <v>1.100000023841819</v>
       </c>
       <c r="P5">
-        <v>0.8442536647061036</v>
+        <v>1.104639601414793</v>
       </c>
       <c r="Q5">
-        <v>41.84201685337329</v>
+        <v>29.82983126617234</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999629</v>
+        <v>-89.99999999999795</v>
       </c>
       <c r="S5">
-        <v>117.929248054104</v>
+        <v>150.07670575047</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -3957,22 +3957,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5307908470060845</v>
+        <v>1.103604911590331</v>
       </c>
       <c r="O6">
-        <v>1.100000023848398</v>
+        <v>1.100000023841819</v>
       </c>
       <c r="P6">
-        <v>0.8442536647061036</v>
+        <v>1.104639601414793</v>
       </c>
       <c r="Q6">
-        <v>41.84201685337329</v>
+        <v>29.82983126617235</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999628</v>
+        <v>-89.99999999999795</v>
       </c>
       <c r="S6">
-        <v>117.929248054104</v>
+        <v>150.07670575047</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -4094,22 +4094,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.072716321795767</v>
+        <v>1.100587860307767</v>
       </c>
       <c r="O2">
-        <v>1.100000023843907</v>
+        <v>1.100000023841843</v>
       </c>
       <c r="P2">
-        <v>1.088762983565498</v>
+        <v>1.100671391099851</v>
       </c>
       <c r="Q2">
-        <v>29.86909882613308</v>
+        <v>29.97731018453936</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999638</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>148.691837501059</v>
+        <v>150.0151524436795</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -4156,22 +4156,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9577890734079624</v>
+        <v>1.103206028583804</v>
       </c>
       <c r="O3">
-        <v>1.10000002384432</v>
+        <v>1.100000023841821</v>
       </c>
       <c r="P3">
-        <v>1.054986240472651</v>
+        <v>1.103441283512511</v>
       </c>
       <c r="Q3">
-        <v>28.77652827267239</v>
+        <v>29.88977788759522</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999643</v>
+        <v>-89.99999999999797</v>
       </c>
       <c r="S3">
-        <v>142.7262077656467</v>
+        <v>150.0889767425807</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1.245288291711346</v>
+        <v>0.0332599331934821</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>14.37935060876469</v>
+        <v>0.3840526276497173</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -4200,43 +4200,43 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>3.756194024324208</v>
+        <v>0.703971080450207</v>
       </c>
       <c r="I4">
-        <v>2.351750953160543</v>
+        <v>-1166.347687233957</v>
       </c>
       <c r="J4">
-        <v>0.6277319162687571</v>
+        <v>0.6277319161384742</v>
       </c>
       <c r="K4">
-        <v>2.898438697960029</v>
+        <v>2.898438697954031</v>
       </c>
       <c r="L4">
-        <v>0.6277319163640337</v>
+        <v>0.6277319163812134</v>
       </c>
       <c r="M4">
-        <v>2.898438697959957</v>
+        <v>2.898438697959627</v>
       </c>
       <c r="N4">
-        <v>0.9154105614346413</v>
+        <v>1.103608069364905</v>
       </c>
       <c r="O4">
-        <v>1.10000002384432</v>
+        <v>1.100000023841821</v>
       </c>
       <c r="P4">
-        <v>1.016159979689185</v>
+        <v>1.104719017901891</v>
       </c>
       <c r="Q4">
-        <v>30.27778034773901</v>
+        <v>29.82515399651605</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999797</v>
       </c>
       <c r="S4">
-        <v>141.0749476076403</v>
+        <v>150.074493369308</v>
       </c>
       <c r="T4">
-        <v>1.245288291711346</v>
+        <v>0.03325993319348211</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -4280,22 +4280,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.915410561437367</v>
+        <v>1.103608069364799</v>
       </c>
       <c r="O5">
-        <v>1.10000002384432</v>
+        <v>1.100000023841821</v>
       </c>
       <c r="P5">
-        <v>1.016159979687425</v>
+        <v>1.104719017901847</v>
       </c>
       <c r="Q5">
-        <v>30.27778034792168</v>
+        <v>29.82515399651549</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999797</v>
       </c>
       <c r="S5">
-        <v>141.0749476078425</v>
+        <v>150.074493369303</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -4342,22 +4342,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9154105614373672</v>
+        <v>1.103608069364799</v>
       </c>
       <c r="O6">
-        <v>1.10000002384432</v>
+        <v>1.100000023841821</v>
       </c>
       <c r="P6">
-        <v>1.016159979687425</v>
+        <v>1.104719017901847</v>
       </c>
       <c r="Q6">
-        <v>30.27778034792167</v>
+        <v>29.82515399651549</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999798</v>
       </c>
       <c r="S6">
-        <v>141.0749476078425</v>
+        <v>150.074493369303</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -4630,22 +4630,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.072716321795767</v>
+        <v>1.100587860307767</v>
       </c>
       <c r="O2">
-        <v>1.100000023843907</v>
+        <v>1.100000023841843</v>
       </c>
       <c r="P2">
-        <v>1.088762983565498</v>
+        <v>1.100671391099851</v>
       </c>
       <c r="Q2">
-        <v>29.86909882613308</v>
+        <v>29.97731018453936</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999638</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>148.691837501059</v>
+        <v>150.0151524436795</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -4692,22 +4692,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9577890734079624</v>
+        <v>1.103206028583804</v>
       </c>
       <c r="O3">
-        <v>1.10000002384432</v>
+        <v>1.100000023841821</v>
       </c>
       <c r="P3">
-        <v>1.054986240472651</v>
+        <v>1.103441283512511</v>
       </c>
       <c r="Q3">
-        <v>28.77652827267239</v>
+        <v>29.88977788759522</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999643</v>
+        <v>-89.99999999999797</v>
       </c>
       <c r="S3">
-        <v>142.7262077656467</v>
+        <v>150.0889767425807</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -4718,7 +4718,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1.245288291711346</v>
+        <v>0.0332599331934821</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4727,7 +4727,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>14.37935060876469</v>
+        <v>0.3840526276497173</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -4736,43 +4736,43 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>3.756194024324208</v>
+        <v>0.703971080450207</v>
       </c>
       <c r="I4">
-        <v>2.351750953160543</v>
+        <v>-1166.347687233957</v>
       </c>
       <c r="J4">
-        <v>0.6277319162687571</v>
+        <v>0.6277319161384742</v>
       </c>
       <c r="K4">
-        <v>2.898438697960029</v>
+        <v>2.898438697954031</v>
       </c>
       <c r="L4">
-        <v>0.6277319163640337</v>
+        <v>0.6277319163812134</v>
       </c>
       <c r="M4">
-        <v>2.898438697959957</v>
+        <v>2.898438697959627</v>
       </c>
       <c r="N4">
-        <v>0.9154105614346413</v>
+        <v>1.103608069364905</v>
       </c>
       <c r="O4">
-        <v>1.10000002384432</v>
+        <v>1.100000023841821</v>
       </c>
       <c r="P4">
-        <v>1.016159979689185</v>
+        <v>1.104719017901891</v>
       </c>
       <c r="Q4">
-        <v>30.27778034773901</v>
+        <v>29.82515399651605</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999797</v>
       </c>
       <c r="S4">
-        <v>141.0749476076403</v>
+        <v>150.074493369308</v>
       </c>
       <c r="T4">
-        <v>1.245288291711346</v>
+        <v>0.03325993319348211</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -4816,22 +4816,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.915410561437367</v>
+        <v>1.103608069364799</v>
       </c>
       <c r="O5">
-        <v>1.10000002384432</v>
+        <v>1.100000023841821</v>
       </c>
       <c r="P5">
-        <v>1.016159979687425</v>
+        <v>1.104719017901847</v>
       </c>
       <c r="Q5">
-        <v>30.27778034792168</v>
+        <v>29.82515399651549</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999797</v>
       </c>
       <c r="S5">
-        <v>141.0749476078425</v>
+        <v>150.074493369303</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -4878,22 +4878,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9154105614373672</v>
+        <v>1.103608069364799</v>
       </c>
       <c r="O6">
-        <v>1.10000002384432</v>
+        <v>1.100000023841821</v>
       </c>
       <c r="P6">
-        <v>1.016159979687425</v>
+        <v>1.104719017901847</v>
       </c>
       <c r="Q6">
-        <v>30.27778034792167</v>
+        <v>29.82515399651549</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999798</v>
       </c>
       <c r="S6">
-        <v>141.0749476078425</v>
+        <v>150.074493369303</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5015,22 +5015,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9330676370926596</v>
+        <v>1.000604783304731</v>
       </c>
       <c r="O2">
-        <v>0.9999999999962246</v>
+        <v>0.9999999999999987</v>
       </c>
       <c r="P2">
-        <v>0.9815853177984944</v>
+        <v>1.00068128531133</v>
       </c>
       <c r="Q2">
-        <v>29.08376282523001</v>
+        <v>29.97494765720044</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999643</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>146.1722038019325</v>
+        <v>150.0174587191951</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -5077,22 +5077,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.685565930461979</v>
+        <v>1.003033584745505</v>
       </c>
       <c r="O3">
-        <v>1.00000000000088</v>
+        <v>0.9999999999999657</v>
       </c>
       <c r="P3">
-        <v>0.9717423948434275</v>
+        <v>1.003216302082516</v>
       </c>
       <c r="Q3">
-        <v>22.54559572939269</v>
+        <v>29.88792695350215</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999667</v>
+        <v>-89.99999999999798</v>
       </c>
       <c r="S3">
-        <v>130.6611007089224</v>
+        <v>150.0939215337631</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -5103,7 +5103,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>2.74766627504867</v>
+        <v>0.02985464667317897</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -5112,7 +5112,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>31.72731727085213</v>
+        <v>0.3447317658664209</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -5121,43 +5121,43 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.179198268248291</v>
+        <v>1.343077675918699</v>
       </c>
       <c r="I4">
-        <v>2.381328006872701</v>
+        <v>-1166.329730542223</v>
       </c>
       <c r="J4">
-        <v>1.113751880253157</v>
+        <v>1.113751880154967</v>
       </c>
       <c r="K4">
-        <v>3.006397543745564</v>
+        <v>3.006397543739303</v>
       </c>
       <c r="L4">
-        <v>1.113751880233363</v>
+        <v>1.113751880249025</v>
       </c>
       <c r="M4">
-        <v>3.006397543745531</v>
+        <v>3.006397543745765</v>
       </c>
       <c r="N4">
-        <v>0.5600542419139702</v>
+        <v>1.003050684665447</v>
       </c>
       <c r="O4">
-        <v>1.00000000000088</v>
+        <v>0.9999999999999657</v>
       </c>
       <c r="P4">
-        <v>0.8522031570042673</v>
+        <v>1.004720531704411</v>
       </c>
       <c r="Q4">
-        <v>31.62940090634055</v>
+        <v>29.78904667565571</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999631</v>
+        <v>-89.99999999999797</v>
       </c>
       <c r="S4">
-        <v>124.0256852900353</v>
+        <v>150.0450256708719</v>
       </c>
       <c r="T4">
-        <v>2.74766627504867</v>
+        <v>0.02985464667317897</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -5201,22 +5201,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.5600542419264996</v>
+        <v>1.003050684665303</v>
       </c>
       <c r="O5">
-        <v>1.00000000000088</v>
+        <v>0.9999999999999657</v>
       </c>
       <c r="P5">
-        <v>0.852203156998446</v>
+        <v>1.004720531704295</v>
       </c>
       <c r="Q5">
-        <v>31.62940090699026</v>
+        <v>29.78904667565866</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999631</v>
+        <v>-89.99999999999797</v>
       </c>
       <c r="S5">
-        <v>124.0256852908948</v>
+        <v>150.0450256708663</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -5263,22 +5263,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5600542419264997</v>
+        <v>1.003050684665303</v>
       </c>
       <c r="O6">
-        <v>1.00000000000088</v>
+        <v>0.9999999999999657</v>
       </c>
       <c r="P6">
-        <v>0.852203156998446</v>
+        <v>1.004720531704295</v>
       </c>
       <c r="Q6">
-        <v>31.62940090699026</v>
+        <v>29.78904667565865</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999631</v>
+        <v>-89.99999999999797</v>
       </c>
       <c r="S6">
-        <v>124.0256852908948</v>
+        <v>150.0450256708663</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5400,22 +5400,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9330676370926596</v>
+        <v>1.000604783304731</v>
       </c>
       <c r="O2">
-        <v>0.9999999999962246</v>
+        <v>0.9999999999999987</v>
       </c>
       <c r="P2">
-        <v>0.9815853177984944</v>
+        <v>1.00068128531133</v>
       </c>
       <c r="Q2">
-        <v>29.08376282523001</v>
+        <v>29.97494765720044</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999643</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>146.1722038019325</v>
+        <v>150.0174587191951</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -5462,22 +5462,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.685565930461979</v>
+        <v>1.003033584745505</v>
       </c>
       <c r="O3">
-        <v>1.00000000000088</v>
+        <v>0.9999999999999657</v>
       </c>
       <c r="P3">
-        <v>0.9717423948434275</v>
+        <v>1.003216302082516</v>
       </c>
       <c r="Q3">
-        <v>22.54559572939269</v>
+        <v>29.88792695350215</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999667</v>
+        <v>-89.99999999999798</v>
       </c>
       <c r="S3">
-        <v>130.6611007089224</v>
+        <v>150.0939215337631</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -5488,7 +5488,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>2.74766627504867</v>
+        <v>0.02985464667317897</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -5497,7 +5497,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>31.72731727085213</v>
+        <v>0.3447317658664209</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -5506,43 +5506,43 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.179198268248291</v>
+        <v>1.343077675918699</v>
       </c>
       <c r="I4">
-        <v>2.381328006872701</v>
+        <v>-1166.329730542223</v>
       </c>
       <c r="J4">
-        <v>1.113751880253157</v>
+        <v>1.113751880154967</v>
       </c>
       <c r="K4">
-        <v>3.006397543745564</v>
+        <v>3.006397543739303</v>
       </c>
       <c r="L4">
-        <v>1.113751880233363</v>
+        <v>1.113751880249025</v>
       </c>
       <c r="M4">
-        <v>3.006397543745531</v>
+        <v>3.006397543745765</v>
       </c>
       <c r="N4">
-        <v>0.5600542419139702</v>
+        <v>1.003050684665447</v>
       </c>
       <c r="O4">
-        <v>1.00000000000088</v>
+        <v>0.9999999999999657</v>
       </c>
       <c r="P4">
-        <v>0.8522031570042673</v>
+        <v>1.004720531704411</v>
       </c>
       <c r="Q4">
-        <v>31.62940090634055</v>
+        <v>29.78904667565571</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999631</v>
+        <v>-89.99999999999797</v>
       </c>
       <c r="S4">
-        <v>124.0256852900353</v>
+        <v>150.0450256708719</v>
       </c>
       <c r="T4">
-        <v>2.74766627504867</v>
+        <v>0.02985464667317897</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -5586,22 +5586,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.5600542419264996</v>
+        <v>1.003050684665303</v>
       </c>
       <c r="O5">
-        <v>1.00000000000088</v>
+        <v>0.9999999999999657</v>
       </c>
       <c r="P5">
-        <v>0.852203156998446</v>
+        <v>1.004720531704295</v>
       </c>
       <c r="Q5">
-        <v>31.62940090699026</v>
+        <v>29.78904667565866</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999631</v>
+        <v>-89.99999999999797</v>
       </c>
       <c r="S5">
-        <v>124.0256852908948</v>
+        <v>150.0450256708663</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -5648,22 +5648,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5600542419264997</v>
+        <v>1.003050684665303</v>
       </c>
       <c r="O6">
-        <v>1.00000000000088</v>
+        <v>0.9999999999999657</v>
       </c>
       <c r="P6">
-        <v>0.852203156998446</v>
+        <v>1.004720531704295</v>
       </c>
       <c r="Q6">
-        <v>31.62940090699026</v>
+        <v>29.78904667565865</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999631</v>
+        <v>-89.99999999999797</v>
       </c>
       <c r="S6">
-        <v>124.0256852908948</v>
+        <v>150.0450256708663</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5785,22 +5785,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9748242789958831</v>
+        <v>1.00060675703586</v>
       </c>
       <c r="O2">
-        <v>0.9999999999986391</v>
+        <v>0.999999999999998</v>
       </c>
       <c r="P2">
-        <v>0.991744427406085</v>
+        <v>1.000694116004301</v>
       </c>
       <c r="Q2">
-        <v>29.72554953852313</v>
+        <v>29.97416429687222</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999639</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>148.6048110612664</v>
+        <v>150.0171643912571</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -5847,22 +5847,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8799507209477616</v>
+        <v>1.003046660890492</v>
       </c>
       <c r="O3">
-        <v>1.000000000000372</v>
+        <v>0.9999999999999664</v>
       </c>
       <c r="P3">
-        <v>0.9720488392223607</v>
+        <v>1.003279560207599</v>
       </c>
       <c r="Q3">
-        <v>28.11844882001397</v>
+        <v>29.88418060944208</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999646</v>
+        <v>-89.99999999999798</v>
       </c>
       <c r="S3">
-        <v>142.978649445566</v>
+        <v>150.0926824065155</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -5873,7 +5873,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1.024643545051072</v>
+        <v>0.03024181544895483</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -5882,7 +5882,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>11.83156453117298</v>
+        <v>0.3492024058047411</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -5891,43 +5891,43 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.179198268248291</v>
+        <v>1.343077675918699</v>
       </c>
       <c r="I4">
-        <v>2.381328006872701</v>
+        <v>-1166.329730542223</v>
       </c>
       <c r="J4">
-        <v>1.113751880253157</v>
+        <v>1.113751880154967</v>
       </c>
       <c r="K4">
-        <v>3.006397543745564</v>
+        <v>3.006397543739303</v>
       </c>
       <c r="L4">
-        <v>1.113751880233363</v>
+        <v>1.113751880249025</v>
       </c>
       <c r="M4">
-        <v>3.006397543745531</v>
+        <v>3.006397543745765</v>
       </c>
       <c r="N4">
-        <v>0.8362524769735676</v>
+        <v>1.003041082815942</v>
       </c>
       <c r="O4">
-        <v>1.000000000000372</v>
+        <v>0.9999999999999664</v>
       </c>
       <c r="P4">
-        <v>0.9180075919745209</v>
+        <v>1.004791798764937</v>
       </c>
       <c r="Q4">
-        <v>30.80741995392372</v>
+        <v>29.78401379967073</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999633</v>
+        <v>-89.999999999998</v>
       </c>
       <c r="S4">
-        <v>141.4811203018103</v>
+        <v>150.0420210730773</v>
       </c>
       <c r="T4">
-        <v>1.024643545051072</v>
+        <v>0.03024181544895482</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -5971,22 +5971,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8362524769782893</v>
+        <v>1.003041082815798</v>
       </c>
       <c r="O5">
-        <v>1.000000000000372</v>
+        <v>0.9999999999999662</v>
       </c>
       <c r="P5">
-        <v>0.9180075919740657</v>
+        <v>1.004791798764817</v>
       </c>
       <c r="Q5">
-        <v>30.80741995407914</v>
+        <v>29.78401379967382</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999633</v>
+        <v>-89.99999999999798</v>
       </c>
       <c r="S5">
-        <v>141.481120302136</v>
+        <v>150.0420210730717</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -6033,22 +6033,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8362524769782893</v>
+        <v>1.003041082815797</v>
       </c>
       <c r="O6">
-        <v>1.000000000000372</v>
+        <v>0.9999999999999662</v>
       </c>
       <c r="P6">
-        <v>0.9180075919740657</v>
+        <v>1.004791798764817</v>
       </c>
       <c r="Q6">
-        <v>30.80741995407914</v>
+        <v>29.78401379967383</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999633</v>
+        <v>-89.99999999999798</v>
       </c>
       <c r="S6">
-        <v>141.481120302136</v>
+        <v>150.0420210730717</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6170,22 +6170,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9748242789958831</v>
+        <v>1.00060675703586</v>
       </c>
       <c r="O2">
-        <v>0.9999999999986391</v>
+        <v>0.999999999999998</v>
       </c>
       <c r="P2">
-        <v>0.991744427406085</v>
+        <v>1.000694116004301</v>
       </c>
       <c r="Q2">
-        <v>29.72554953852313</v>
+        <v>29.97416429687222</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999639</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>148.6048110612664</v>
+        <v>150.0171643912571</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -6232,22 +6232,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8799507209477616</v>
+        <v>1.003046660890492</v>
       </c>
       <c r="O3">
-        <v>1.000000000000372</v>
+        <v>0.9999999999999664</v>
       </c>
       <c r="P3">
-        <v>0.9720488392223607</v>
+        <v>1.003279560207599</v>
       </c>
       <c r="Q3">
-        <v>28.11844882001397</v>
+        <v>29.88418060944208</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999646</v>
+        <v>-89.99999999999798</v>
       </c>
       <c r="S3">
-        <v>142.978649445566</v>
+        <v>150.0926824065155</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -6258,7 +6258,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1.024643545051072</v>
+        <v>0.03024181544895483</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -6267,7 +6267,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>11.83156453117298</v>
+        <v>0.3492024058047411</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -6276,43 +6276,43 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.179198268248291</v>
+        <v>1.343077675918699</v>
       </c>
       <c r="I4">
-        <v>2.381328006872701</v>
+        <v>-1166.329730542223</v>
       </c>
       <c r="J4">
-        <v>1.113751880253157</v>
+        <v>1.113751880154967</v>
       </c>
       <c r="K4">
-        <v>3.006397543745564</v>
+        <v>3.006397543739303</v>
       </c>
       <c r="L4">
-        <v>1.113751880233363</v>
+        <v>1.113751880249025</v>
       </c>
       <c r="M4">
-        <v>3.006397543745531</v>
+        <v>3.006397543745765</v>
       </c>
       <c r="N4">
-        <v>0.8362524769735676</v>
+        <v>1.003041082815942</v>
       </c>
       <c r="O4">
-        <v>1.000000000000372</v>
+        <v>0.9999999999999664</v>
       </c>
       <c r="P4">
-        <v>0.9180075919745209</v>
+        <v>1.004791798764937</v>
       </c>
       <c r="Q4">
-        <v>30.80741995392372</v>
+        <v>29.78401379967073</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999633</v>
+        <v>-89.999999999998</v>
       </c>
       <c r="S4">
-        <v>141.4811203018103</v>
+        <v>150.0420210730773</v>
       </c>
       <c r="T4">
-        <v>1.024643545051072</v>
+        <v>0.03024181544895482</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -6356,22 +6356,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8362524769782893</v>
+        <v>1.003041082815798</v>
       </c>
       <c r="O5">
-        <v>1.000000000000372</v>
+        <v>0.9999999999999662</v>
       </c>
       <c r="P5">
-        <v>0.9180075919740657</v>
+        <v>1.004791798764817</v>
       </c>
       <c r="Q5">
-        <v>30.80741995407914</v>
+        <v>29.78401379967382</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999633</v>
+        <v>-89.99999999999798</v>
       </c>
       <c r="S5">
-        <v>141.481120302136</v>
+        <v>150.0420210730717</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -6418,22 +6418,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8362524769782893</v>
+        <v>1.003041082815797</v>
       </c>
       <c r="O6">
-        <v>1.000000000000372</v>
+        <v>0.9999999999999662</v>
       </c>
       <c r="P6">
-        <v>0.9180075919740657</v>
+        <v>1.004791798764817</v>
       </c>
       <c r="Q6">
-        <v>30.80741995407914</v>
+        <v>29.78401379967383</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999633</v>
+        <v>-89.99999999999798</v>
       </c>
       <c r="S6">
-        <v>141.481120302136</v>
+        <v>150.0420210730717</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6555,22 +6555,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.033834591126502</v>
+        <v>1.070247218943805</v>
       </c>
       <c r="O2">
-        <v>0.9380319009574171</v>
+        <v>0.9380319009573879</v>
       </c>
       <c r="P2">
-        <v>1.039783675255394</v>
+        <v>1.05366268239266</v>
       </c>
       <c r="Q2">
-        <v>25.4407708959533</v>
+        <v>25.98458286671388</v>
       </c>
       <c r="R2">
-        <v>-91.13019952199039</v>
+        <v>-91.13019952201577</v>
       </c>
       <c r="S2">
-        <v>151.6506841728225</v>
+        <v>153.572843616956</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -6617,22 +6617,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8822886014204067</v>
+        <v>1.032542323066655</v>
       </c>
       <c r="O3">
-        <v>0.2917056037528094</v>
+        <v>0.2917056037512402</v>
       </c>
       <c r="P3">
-        <v>0.7861797431853798</v>
+        <v>0.8916282118143051</v>
       </c>
       <c r="Q3">
-        <v>-0.6922171300609149</v>
+        <v>7.082387616342465</v>
       </c>
       <c r="R3">
-        <v>-119.1713773544544</v>
+        <v>-119.1713773550689</v>
       </c>
       <c r="S3">
-        <v>160.2729863567569</v>
+        <v>171.7852909647757</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -6646,58 +6646,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.89029989445454</v>
+        <v>3.710900988404298</v>
       </c>
       <c r="D4">
-        <v>3.074581173286804</v>
+        <v>3.707425075095254</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>56.46831920962655</v>
+        <v>42.84979369182539</v>
       </c>
       <c r="G4">
-        <v>35.50220536084984</v>
+        <v>42.80965730213227</v>
       </c>
       <c r="H4">
-        <v>3.756194024324173</v>
+        <v>0.7039710804487342</v>
       </c>
       <c r="I4">
-        <v>2.351750953160726</v>
+        <v>-1166.347687233957</v>
       </c>
       <c r="J4">
-        <v>0.6277319163570267</v>
+        <v>0.6277319164170393</v>
       </c>
       <c r="K4">
-        <v>2.898438697948214</v>
+        <v>2.898438698064163</v>
       </c>
       <c r="L4">
-        <v>0.6277319163638756</v>
+        <v>0.6277319163551763</v>
       </c>
       <c r="M4">
-        <v>2.898438697960007</v>
+        <v>2.898438697974897</v>
       </c>
       <c r="N4">
-        <v>0.7580900664194924</v>
+        <v>0.9538129136789506</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7580900664245823</v>
+        <v>0.9538129136805825</v>
       </c>
       <c r="Q4">
-        <v>-10.99131251244341</v>
+        <v>-0.01548057802851177</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>169.0086874874627</v>
+        <v>179.9845194219879</v>
       </c>
       <c r="T4">
-        <v>3.421236433640686</v>
+        <v>0.01635554732753491</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -6741,22 +6741,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.7580900664088178</v>
+        <v>0.9538129136700035</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.7580900664344269</v>
+        <v>0.9538129136894873</v>
       </c>
       <c r="Q5">
-        <v>-10.99131251157505</v>
+        <v>-0.0154805775571363</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>169.0086874874212</v>
+        <v>179.9845194215147</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -6803,22 +6803,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.7580900664088178</v>
+        <v>0.9538129136700034</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.7580900664344267</v>
+        <v>0.9538129136894873</v>
       </c>
       <c r="Q6">
-        <v>-10.99131251157506</v>
+        <v>-0.01548057755714614</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>169.0086874874212</v>
+        <v>179.9845194215147</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6940,22 +6940,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.033834591126502</v>
+        <v>1.070247218943805</v>
       </c>
       <c r="O2">
-        <v>0.9380319009574171</v>
+        <v>0.9380319009573879</v>
       </c>
       <c r="P2">
-        <v>1.039783675255394</v>
+        <v>1.05366268239266</v>
       </c>
       <c r="Q2">
-        <v>25.4407708959533</v>
+        <v>25.98458286671388</v>
       </c>
       <c r="R2">
-        <v>-91.13019952199039</v>
+        <v>-91.13019952201577</v>
       </c>
       <c r="S2">
-        <v>151.6506841728225</v>
+        <v>153.572843616956</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -7002,22 +7002,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8822886014204067</v>
+        <v>1.032542323066655</v>
       </c>
       <c r="O3">
-        <v>0.2917056037528094</v>
+        <v>0.2917056037512402</v>
       </c>
       <c r="P3">
-        <v>0.7861797431853798</v>
+        <v>0.8916282118143051</v>
       </c>
       <c r="Q3">
-        <v>-0.6922171300609149</v>
+        <v>7.082387616342465</v>
       </c>
       <c r="R3">
-        <v>-119.1713773544544</v>
+        <v>-119.1713773550689</v>
       </c>
       <c r="S3">
-        <v>160.2729863567569</v>
+        <v>171.7852909647757</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -7031,58 +7031,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.89029989445454</v>
+        <v>3.710900988404298</v>
       </c>
       <c r="D4">
-        <v>3.074581173286804</v>
+        <v>3.707425075095254</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>56.46831920962655</v>
+        <v>42.84979369182539</v>
       </c>
       <c r="G4">
-        <v>35.50220536084984</v>
+        <v>42.80965730213227</v>
       </c>
       <c r="H4">
-        <v>3.756194024324173</v>
+        <v>0.7039710804487342</v>
       </c>
       <c r="I4">
-        <v>2.351750953160726</v>
+        <v>-1166.347687233957</v>
       </c>
       <c r="J4">
-        <v>0.6277319163570267</v>
+        <v>0.6277319164170393</v>
       </c>
       <c r="K4">
-        <v>2.898438697948214</v>
+        <v>2.898438698064163</v>
       </c>
       <c r="L4">
-        <v>0.6277319163638756</v>
+        <v>0.6277319163551763</v>
       </c>
       <c r="M4">
-        <v>2.898438697960007</v>
+        <v>2.898438697974897</v>
       </c>
       <c r="N4">
-        <v>0.7580900664194924</v>
+        <v>0.9538129136789506</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7580900664245823</v>
+        <v>0.9538129136805825</v>
       </c>
       <c r="Q4">
-        <v>-10.99131251244341</v>
+        <v>-0.01548057802851177</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>169.0086874874627</v>
+        <v>179.9845194219879</v>
       </c>
       <c r="T4">
-        <v>3.421236433640686</v>
+        <v>0.01635554732753491</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -7126,22 +7126,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.7580900664088178</v>
+        <v>0.9538129136700035</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.7580900664344269</v>
+        <v>0.9538129136894873</v>
       </c>
       <c r="Q5">
-        <v>-10.99131251157505</v>
+        <v>-0.0154805775571363</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>169.0086874874212</v>
+        <v>179.9845194215147</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -7188,22 +7188,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.7580900664088178</v>
+        <v>0.9538129136700034</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.7580900664344267</v>
+        <v>0.9538129136894873</v>
       </c>
       <c r="Q6">
-        <v>-10.99131251157506</v>
+        <v>-0.01548057755714614</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>169.0086874874212</v>
+        <v>179.9845194215147</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -7325,22 +7325,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.087472688177881</v>
+        <v>1.100327024871734</v>
       </c>
       <c r="O2">
-        <v>1.0569664434898</v>
+        <v>1.056966443489666</v>
       </c>
       <c r="P2">
-        <v>1.074003057283435</v>
+        <v>1.078682364227437</v>
       </c>
       <c r="Q2">
-        <v>28.5670414298747</v>
+        <v>28.69500333086892</v>
       </c>
       <c r="R2">
-        <v>-91.34292556127281</v>
+        <v>-91.34292556127374</v>
       </c>
       <c r="S2">
-        <v>150.0209673862094</v>
+        <v>150.6714185218688</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -7387,22 +7387,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.050311392544345</v>
+        <v>1.114967261540566</v>
       </c>
       <c r="O3">
-        <v>0.8910570420404541</v>
+        <v>0.8910570420387938</v>
       </c>
       <c r="P3">
-        <v>0.9635558185407379</v>
+        <v>0.986133768486821</v>
       </c>
       <c r="Q3">
-        <v>21.99793779217646</v>
+        <v>23.23089752875503</v>
       </c>
       <c r="R3">
-        <v>-99.16867920486989</v>
+        <v>-99.16867920489022</v>
       </c>
       <c r="S3">
-        <v>149.6921885483852</v>
+        <v>153.5079964254892</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -7416,58 +7416,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1.367510898951779</v>
+        <v>1.139066116224501</v>
       </c>
       <c r="D4">
-        <v>1.181818645416918</v>
+        <v>1.129415818715639</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>15.79065571259114</v>
+        <v>13.15280257653994</v>
       </c>
       <c r="G4">
-        <v>13.64646626129553</v>
+        <v>13.04137053924992</v>
       </c>
       <c r="H4">
-        <v>3.756194024324173</v>
+        <v>0.7039710804487342</v>
       </c>
       <c r="I4">
-        <v>2.351750953160726</v>
+        <v>-1166.347687233957</v>
       </c>
       <c r="J4">
-        <v>0.6277319163570267</v>
+        <v>0.6277319164170393</v>
       </c>
       <c r="K4">
-        <v>2.898438697948214</v>
+        <v>2.898438698064163</v>
       </c>
       <c r="L4">
-        <v>0.6277319163638756</v>
+        <v>0.6277319163551763</v>
       </c>
       <c r="M4">
-        <v>2.898438697960007</v>
+        <v>2.898438697974897</v>
       </c>
       <c r="N4">
-        <v>1.007885130085947</v>
+        <v>1.094081746559575</v>
       </c>
       <c r="O4">
-        <v>0.8020156209384898</v>
+        <v>0.8020156209369312</v>
       </c>
       <c r="P4">
-        <v>0.9264810374263683</v>
+        <v>0.9716689138470418</v>
       </c>
       <c r="Q4">
-        <v>20.15794956472948</v>
+        <v>21.17528478668252</v>
       </c>
       <c r="R4">
-        <v>-99.52967390013438</v>
+        <v>-99.52967390016337</v>
       </c>
       <c r="S4">
-        <v>151.3913887327441</v>
+        <v>155.9659376525849</v>
       </c>
       <c r="T4">
-        <v>1.178019647111573</v>
+        <v>0.01646109260174489</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -7511,22 +7511,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.007885130083982</v>
+        <v>1.094081746556736</v>
       </c>
       <c r="O5">
-        <v>0.802015620939579</v>
+        <v>0.8020156209380207</v>
       </c>
       <c r="P5">
-        <v>0.9264810374292785</v>
+        <v>0.9716689138506468</v>
       </c>
       <c r="Q5">
-        <v>20.15794956495235</v>
+        <v>21.17528478680287</v>
       </c>
       <c r="R5">
-        <v>-99.52967389962053</v>
+        <v>-99.52967389964952</v>
       </c>
       <c r="S5">
-        <v>151.3913887328942</v>
+        <v>155.9659376526055</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -7573,22 +7573,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.007885130083982</v>
+        <v>1.094081746556735</v>
       </c>
       <c r="O6">
-        <v>0.8020156209395791</v>
+        <v>0.8020156209380207</v>
       </c>
       <c r="P6">
-        <v>0.9264810374292785</v>
+        <v>0.9716689138506468</v>
       </c>
       <c r="Q6">
-        <v>20.15794956495235</v>
+        <v>21.17528478680287</v>
       </c>
       <c r="R6">
-        <v>-99.52967389962053</v>
+        <v>-99.52967389964952</v>
       </c>
       <c r="S6">
-        <v>151.3913887328942</v>
+        <v>155.9659376526055</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -7710,22 +7710,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.087472688177881</v>
+        <v>1.100327024871734</v>
       </c>
       <c r="O2">
-        <v>1.0569664434898</v>
+        <v>1.056966443489666</v>
       </c>
       <c r="P2">
-        <v>1.074003057283435</v>
+        <v>1.078682364227437</v>
       </c>
       <c r="Q2">
-        <v>28.5670414298747</v>
+        <v>28.69500333086892</v>
       </c>
       <c r="R2">
-        <v>-91.34292556127281</v>
+        <v>-91.34292556127374</v>
       </c>
       <c r="S2">
-        <v>150.0209673862094</v>
+        <v>150.6714185218688</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -7772,22 +7772,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.050311392544345</v>
+        <v>1.114967261540566</v>
       </c>
       <c r="O3">
-        <v>0.8910570420404541</v>
+        <v>0.8910570420387938</v>
       </c>
       <c r="P3">
-        <v>0.9635558185407379</v>
+        <v>0.986133768486821</v>
       </c>
       <c r="Q3">
-        <v>21.99793779217646</v>
+        <v>23.23089752875503</v>
       </c>
       <c r="R3">
-        <v>-99.16867920486989</v>
+        <v>-99.16867920489022</v>
       </c>
       <c r="S3">
-        <v>149.6921885483852</v>
+        <v>153.5079964254892</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -7801,58 +7801,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1.367510898951779</v>
+        <v>1.139066116224501</v>
       </c>
       <c r="D4">
-        <v>1.181818645416918</v>
+        <v>1.129415818715639</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>15.79065571259114</v>
+        <v>13.15280257653994</v>
       </c>
       <c r="G4">
-        <v>13.64646626129553</v>
+        <v>13.04137053924992</v>
       </c>
       <c r="H4">
-        <v>3.756194024324173</v>
+        <v>0.7039710804487342</v>
       </c>
       <c r="I4">
-        <v>2.351750953160726</v>
+        <v>-1166.347687233957</v>
       </c>
       <c r="J4">
-        <v>0.6277319163570267</v>
+        <v>0.6277319164170393</v>
       </c>
       <c r="K4">
-        <v>2.898438697948214</v>
+        <v>2.898438698064163</v>
       </c>
       <c r="L4">
-        <v>0.6277319163638756</v>
+        <v>0.6277319163551763</v>
       </c>
       <c r="M4">
-        <v>2.898438697960007</v>
+        <v>2.898438697974897</v>
       </c>
       <c r="N4">
-        <v>1.007885130085947</v>
+        <v>1.094081746559575</v>
       </c>
       <c r="O4">
-        <v>0.8020156209384898</v>
+        <v>0.8020156209369312</v>
       </c>
       <c r="P4">
-        <v>0.9264810374263683</v>
+        <v>0.9716689138470418</v>
       </c>
       <c r="Q4">
-        <v>20.15794956472948</v>
+        <v>21.17528478668252</v>
       </c>
       <c r="R4">
-        <v>-99.52967390013438</v>
+        <v>-99.52967390016337</v>
       </c>
       <c r="S4">
-        <v>151.3913887327441</v>
+        <v>155.9659376525849</v>
       </c>
       <c r="T4">
-        <v>1.178019647111573</v>
+        <v>0.01646109260174489</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -7896,22 +7896,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.007885130083982</v>
+        <v>1.094081746556736</v>
       </c>
       <c r="O5">
-        <v>0.802015620939579</v>
+        <v>0.8020156209380207</v>
       </c>
       <c r="P5">
-        <v>0.9264810374292785</v>
+        <v>0.9716689138506468</v>
       </c>
       <c r="Q5">
-        <v>20.15794956495235</v>
+        <v>21.17528478680287</v>
       </c>
       <c r="R5">
-        <v>-99.52967389962053</v>
+        <v>-99.52967389964952</v>
       </c>
       <c r="S5">
-        <v>151.3913887328942</v>
+        <v>155.9659376526055</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -7958,22 +7958,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.007885130083982</v>
+        <v>1.094081746556735</v>
       </c>
       <c r="O6">
-        <v>0.8020156209395791</v>
+        <v>0.8020156209380207</v>
       </c>
       <c r="P6">
-        <v>0.9264810374292785</v>
+        <v>0.9716689138506468</v>
       </c>
       <c r="Q6">
-        <v>20.15794956495235</v>
+        <v>21.17528478680287</v>
       </c>
       <c r="R6">
-        <v>-99.52967389962053</v>
+        <v>-99.52967389964952</v>
       </c>
       <c r="S6">
-        <v>151.3913887328942</v>
+        <v>155.9659376526055</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -8095,22 +8095,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.96108202736245</v>
+        <v>0.9823554896583165</v>
       </c>
       <c r="O2">
-        <v>0.8500049525401308</v>
+        <v>0.8500049525413498</v>
       </c>
       <c r="P2">
-        <v>0.9446888896138472</v>
+        <v>0.9470335483829855</v>
       </c>
       <c r="Q2">
-        <v>24.81940158927234</v>
+        <v>25.60427283217094</v>
       </c>
       <c r="R2">
-        <v>-92.65381631332438</v>
+        <v>-92.65381631331138</v>
       </c>
       <c r="S2">
-        <v>151.8511465665611</v>
+        <v>153.3646351409872</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -8157,22 +8157,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9213358555493311</v>
+        <v>0.9909531935085063</v>
       </c>
       <c r="O3">
-        <v>0.3617201835033044</v>
+        <v>0.3617201835029077</v>
       </c>
       <c r="P3">
-        <v>0.7349109543493511</v>
+        <v>0.7658626414407341</v>
       </c>
       <c r="Q3">
-        <v>2.173590821362815</v>
+        <v>8.140987485650863</v>
       </c>
       <c r="R3">
-        <v>-129.09154322421</v>
+        <v>-129.0915432241776</v>
       </c>
       <c r="S3">
-        <v>160.4600233365994</v>
+        <v>169.4353486348264</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -8186,58 +8186,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.87124549297641</v>
+        <v>3.121687732556299</v>
       </c>
       <c r="D4">
-        <v>2.544120427165967</v>
+        <v>3.116499482836657</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>44.70129254938111</v>
+        <v>36.04614505434664</v>
       </c>
       <c r="G4">
-        <v>29.37697226950193</v>
+        <v>35.98623630690147</v>
       </c>
       <c r="H4">
-        <v>7.179198268248217</v>
+        <v>1.343077675919513</v>
       </c>
       <c r="I4">
-        <v>2.381328006872917</v>
+        <v>-1166.32973054222</v>
       </c>
       <c r="J4">
-        <v>1.113751880257003</v>
+        <v>1.113751880300334</v>
       </c>
       <c r="K4">
-        <v>3.00639754378702</v>
+        <v>3.00639754387473</v>
       </c>
       <c r="L4">
-        <v>1.113751880233073</v>
+        <v>1.113751880225172</v>
       </c>
       <c r="M4">
-        <v>3.006397543745576</v>
+        <v>3.006397543758974</v>
       </c>
       <c r="N4">
-        <v>0.7567045212037014</v>
+        <v>0.8671424236561237</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7567045212037673</v>
+        <v>0.8671424236565823</v>
       </c>
       <c r="Q4">
-        <v>-8.312073893177574</v>
+        <v>-0.02747684417592464</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>171.6879261063769</v>
+        <v>179.9725231554717</v>
       </c>
       <c r="T4">
-        <v>2.000848640469837</v>
+        <v>0.01486958320633071</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -8281,22 +8281,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.75670452119441</v>
+        <v>0.8671424236479671</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.7567045212144996</v>
+        <v>0.8671424236646641</v>
       </c>
       <c r="Q5">
-        <v>-8.312073891854451</v>
+        <v>-0.0274768432695622</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>171.6879261058206</v>
+        <v>179.9725231545644</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -8343,22 +8343,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.75670452119441</v>
+        <v>0.8671424236479671</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.7567045212144996</v>
+        <v>0.8671424236646641</v>
       </c>
       <c r="Q6">
-        <v>-8.312073891854448</v>
+        <v>-0.02747684326956194</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>171.6879261058206</v>
+        <v>179.9725231545644</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -8631,22 +8631,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.96108202736245</v>
+        <v>0.9823554896583165</v>
       </c>
       <c r="O2">
-        <v>0.8500049525401308</v>
+        <v>0.8500049525413498</v>
       </c>
       <c r="P2">
-        <v>0.9446888896138472</v>
+        <v>0.9470335483829855</v>
       </c>
       <c r="Q2">
-        <v>24.81940158927234</v>
+        <v>25.60427283217094</v>
       </c>
       <c r="R2">
-        <v>-92.65381631332438</v>
+        <v>-92.65381631331138</v>
       </c>
       <c r="S2">
-        <v>151.8511465665611</v>
+        <v>153.3646351409872</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -8693,22 +8693,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9213358555493311</v>
+        <v>0.9909531935085063</v>
       </c>
       <c r="O3">
-        <v>0.3617201835033044</v>
+        <v>0.3617201835029077</v>
       </c>
       <c r="P3">
-        <v>0.7349109543493511</v>
+        <v>0.7658626414407341</v>
       </c>
       <c r="Q3">
-        <v>2.173590821362815</v>
+        <v>8.140987485650863</v>
       </c>
       <c r="R3">
-        <v>-129.09154322421</v>
+        <v>-129.0915432241776</v>
       </c>
       <c r="S3">
-        <v>160.4600233365994</v>
+        <v>169.4353486348264</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -8722,58 +8722,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.87124549297641</v>
+        <v>3.121687732556299</v>
       </c>
       <c r="D4">
-        <v>2.544120427165967</v>
+        <v>3.116499482836657</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>44.70129254938111</v>
+        <v>36.04614505434664</v>
       </c>
       <c r="G4">
-        <v>29.37697226950193</v>
+        <v>35.98623630690147</v>
       </c>
       <c r="H4">
-        <v>7.179198268248217</v>
+        <v>1.343077675919513</v>
       </c>
       <c r="I4">
-        <v>2.381328006872917</v>
+        <v>-1166.32973054222</v>
       </c>
       <c r="J4">
-        <v>1.113751880257003</v>
+        <v>1.113751880300334</v>
       </c>
       <c r="K4">
-        <v>3.00639754378702</v>
+        <v>3.00639754387473</v>
       </c>
       <c r="L4">
-        <v>1.113751880233073</v>
+        <v>1.113751880225172</v>
       </c>
       <c r="M4">
-        <v>3.006397543745576</v>
+        <v>3.006397543758974</v>
       </c>
       <c r="N4">
-        <v>0.7567045212037014</v>
+        <v>0.8671424236561237</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7567045212037673</v>
+        <v>0.8671424236565823</v>
       </c>
       <c r="Q4">
-        <v>-8.312073893177574</v>
+        <v>-0.02747684417592464</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>171.6879261063769</v>
+        <v>179.9725231554717</v>
       </c>
       <c r="T4">
-        <v>2.000848640469837</v>
+        <v>0.01486958320633071</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -8817,22 +8817,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.75670452119441</v>
+        <v>0.8671424236479671</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.7567045212144996</v>
+        <v>0.8671424236646641</v>
       </c>
       <c r="Q5">
-        <v>-8.312073891854451</v>
+        <v>-0.0274768432695622</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>171.6879261058206</v>
+        <v>179.9725231545644</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -8879,22 +8879,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.75670452119441</v>
+        <v>0.8671424236479671</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.7567045212144996</v>
+        <v>0.8671424236646641</v>
       </c>
       <c r="Q6">
-        <v>-8.312073891854448</v>
+        <v>-0.02747684326956194</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>171.6879261058206</v>
+        <v>179.9725231545644</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -9016,22 +9016,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9902641914120739</v>
+        <v>1.001177886164853</v>
       </c>
       <c r="O2">
-        <v>0.9581045791304982</v>
+        <v>0.9581045791310928</v>
       </c>
       <c r="P2">
-        <v>0.9756991372953043</v>
+        <v>0.9784014336758158</v>
       </c>
       <c r="Q2">
-        <v>28.36619501341837</v>
+        <v>28.57389055418825</v>
       </c>
       <c r="R2">
-        <v>-91.55789971898</v>
+        <v>-91.55789971897735</v>
       </c>
       <c r="S2">
-        <v>150.0392347018117</v>
+        <v>150.6944366120325</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -9078,22 +9078,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9681351630291091</v>
+        <v>1.017576331554275</v>
       </c>
       <c r="O3">
-        <v>0.8139299031199686</v>
+        <v>0.8139299031202379</v>
       </c>
       <c r="P3">
-        <v>0.8824195709788056</v>
+        <v>0.8938184606979861</v>
       </c>
       <c r="Q3">
-        <v>21.74718720477238</v>
+        <v>23.21756622099561</v>
       </c>
       <c r="R3">
-        <v>-99.65273561737126</v>
+        <v>-99.65273561736382</v>
       </c>
       <c r="S3">
-        <v>149.8130562903631</v>
+        <v>153.3255358909809</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -9107,58 +9107,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1.199957377888808</v>
+        <v>0.9972862936449995</v>
       </c>
       <c r="D4">
-        <v>0.9724110168710456</v>
+        <v>0.9881076151665685</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>13.85591430280361</v>
+        <v>11.51567020190129</v>
       </c>
       <c r="G4">
-        <v>11.22843524706912</v>
+        <v>11.40968395209475</v>
       </c>
       <c r="H4">
-        <v>7.179198268248217</v>
+        <v>1.343077675919513</v>
       </c>
       <c r="I4">
-        <v>2.381328006872917</v>
+        <v>-1166.32973054222</v>
       </c>
       <c r="J4">
-        <v>1.113751880257003</v>
+        <v>1.113751880300334</v>
       </c>
       <c r="K4">
-        <v>3.00639754378702</v>
+        <v>3.00639754387473</v>
       </c>
       <c r="L4">
-        <v>1.113751880233073</v>
+        <v>1.113751880225172</v>
       </c>
       <c r="M4">
-        <v>3.006397543745576</v>
+        <v>3.006397543758974</v>
       </c>
       <c r="N4">
-        <v>0.9054384145060419</v>
+        <v>0.9775924704606327</v>
       </c>
       <c r="O4">
-        <v>0.7019303077931054</v>
+        <v>0.7019303077933006</v>
       </c>
       <c r="P4">
-        <v>0.8514129462775721</v>
+        <v>0.8913773054082629</v>
       </c>
       <c r="Q4">
-        <v>19.90061784524741</v>
+        <v>20.8174627467091</v>
       </c>
       <c r="R4">
-        <v>-97.63434507043145</v>
+        <v>-97.63434507041458</v>
       </c>
       <c r="S4">
-        <v>152.9264757634079</v>
+        <v>157.0006155547385</v>
       </c>
       <c r="T4">
-        <v>0.9106659832299961</v>
+        <v>0.01496547112728005</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -9202,22 +9202,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9054384145053676</v>
+        <v>0.9775924704583071</v>
       </c>
       <c r="O5">
-        <v>0.7019303077988903</v>
+        <v>0.7019303077990854</v>
       </c>
       <c r="P5">
-        <v>0.8514129462824442</v>
+        <v>0.8913773054130181</v>
       </c>
       <c r="Q5">
-        <v>19.90061784563325</v>
+        <v>20.81746274697502</v>
       </c>
       <c r="R5">
-        <v>-97.63434506975069</v>
+        <v>-97.63434506973383</v>
       </c>
       <c r="S5">
-        <v>152.9264757634744</v>
+        <v>157.0006155546289</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -9264,22 +9264,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9054384145053674</v>
+        <v>0.9775924704583071</v>
       </c>
       <c r="O6">
-        <v>0.7019303077988903</v>
+        <v>0.7019303077990853</v>
       </c>
       <c r="P6">
-        <v>0.8514129462824442</v>
+        <v>0.891377305413018</v>
       </c>
       <c r="Q6">
-        <v>19.90061784563326</v>
+        <v>20.81746274697502</v>
       </c>
       <c r="R6">
-        <v>-97.63434506975069</v>
+        <v>-97.63434506973383</v>
       </c>
       <c r="S6">
-        <v>152.9264757634744</v>
+        <v>157.0006155546289</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -9401,22 +9401,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9902641914120739</v>
+        <v>1.001177886164853</v>
       </c>
       <c r="O2">
-        <v>0.9581045791304982</v>
+        <v>0.9581045791310928</v>
       </c>
       <c r="P2">
-        <v>0.9756991372953043</v>
+        <v>0.9784014336758158</v>
       </c>
       <c r="Q2">
-        <v>28.36619501341837</v>
+        <v>28.57389055418825</v>
       </c>
       <c r="R2">
-        <v>-91.55789971898</v>
+        <v>-91.55789971897735</v>
       </c>
       <c r="S2">
-        <v>150.0392347018117</v>
+        <v>150.6944366120325</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -9463,22 +9463,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9681351630291091</v>
+        <v>1.017576331554275</v>
       </c>
       <c r="O3">
-        <v>0.8139299031199686</v>
+        <v>0.8139299031202379</v>
       </c>
       <c r="P3">
-        <v>0.8824195709788056</v>
+        <v>0.8938184606979861</v>
       </c>
       <c r="Q3">
-        <v>21.74718720477238</v>
+        <v>23.21756622099561</v>
       </c>
       <c r="R3">
-        <v>-99.65273561737126</v>
+        <v>-99.65273561736382</v>
       </c>
       <c r="S3">
-        <v>149.8130562903631</v>
+        <v>153.3255358909809</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -9492,58 +9492,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1.199957377888808</v>
+        <v>0.9972862936449995</v>
       </c>
       <c r="D4">
-        <v>0.9724110168710456</v>
+        <v>0.9881076151665685</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>13.85591430280361</v>
+        <v>11.51567020190129</v>
       </c>
       <c r="G4">
-        <v>11.22843524706912</v>
+        <v>11.40968395209475</v>
       </c>
       <c r="H4">
-        <v>7.179198268248217</v>
+        <v>1.343077675919513</v>
       </c>
       <c r="I4">
-        <v>2.381328006872917</v>
+        <v>-1166.32973054222</v>
       </c>
       <c r="J4">
-        <v>1.113751880257003</v>
+        <v>1.113751880300334</v>
       </c>
       <c r="K4">
-        <v>3.00639754378702</v>
+        <v>3.00639754387473</v>
       </c>
       <c r="L4">
-        <v>1.113751880233073</v>
+        <v>1.113751880225172</v>
       </c>
       <c r="M4">
-        <v>3.006397543745576</v>
+        <v>3.006397543758974</v>
       </c>
       <c r="N4">
-        <v>0.9054384145060419</v>
+        <v>0.9775924704606327</v>
       </c>
       <c r="O4">
-        <v>0.7019303077931054</v>
+        <v>0.7019303077933006</v>
       </c>
       <c r="P4">
-        <v>0.8514129462775721</v>
+        <v>0.8913773054082629</v>
       </c>
       <c r="Q4">
-        <v>19.90061784524741</v>
+        <v>20.8174627467091</v>
       </c>
       <c r="R4">
-        <v>-97.63434507043145</v>
+        <v>-97.63434507041458</v>
       </c>
       <c r="S4">
-        <v>152.9264757634079</v>
+        <v>157.0006155547385</v>
       </c>
       <c r="T4">
-        <v>0.9106659832299961</v>
+        <v>0.01496547112728005</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -9587,22 +9587,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9054384145053676</v>
+        <v>0.9775924704583071</v>
       </c>
       <c r="O5">
-        <v>0.7019303077988903</v>
+        <v>0.7019303077990854</v>
       </c>
       <c r="P5">
-        <v>0.8514129462824442</v>
+        <v>0.8913773054130181</v>
       </c>
       <c r="Q5">
-        <v>19.90061784563325</v>
+        <v>20.81746274697502</v>
       </c>
       <c r="R5">
-        <v>-97.63434506975069</v>
+        <v>-97.63434506973383</v>
       </c>
       <c r="S5">
-        <v>152.9264757634744</v>
+        <v>157.0006155546289</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -9649,22 +9649,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9054384145053674</v>
+        <v>0.9775924704583071</v>
       </c>
       <c r="O6">
-        <v>0.7019303077988903</v>
+        <v>0.7019303077990853</v>
       </c>
       <c r="P6">
-        <v>0.8514129462824442</v>
+        <v>0.891377305413018</v>
       </c>
       <c r="Q6">
-        <v>19.90061784563326</v>
+        <v>20.81746274697502</v>
       </c>
       <c r="R6">
-        <v>-97.63434506975069</v>
+        <v>-97.63434506973383</v>
       </c>
       <c r="S6">
-        <v>152.9264757634744</v>
+        <v>157.0006155546289</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -10538,22 +10538,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.070094227532346</v>
+        <v>1.070094227532368</v>
       </c>
       <c r="O2">
-        <v>0.9380319009574459</v>
+        <v>0.9380319009574009</v>
       </c>
       <c r="P2">
-        <v>1.053494350468705</v>
+        <v>1.053494350468728</v>
       </c>
       <c r="Q2">
-        <v>25.98965116739708</v>
+        <v>25.98965116739495</v>
       </c>
       <c r="R2">
-        <v>-91.13019952201601</v>
+        <v>-91.13019952201617</v>
       </c>
       <c r="S2">
-        <v>153.5693903185486</v>
+        <v>153.5693903185504</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -10597,22 +10597,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.031611214669993</v>
+        <v>1.031611214670015</v>
       </c>
       <c r="O3">
-        <v>0.2917056037512948</v>
+        <v>0.2917056037512749</v>
       </c>
       <c r="P3">
-        <v>0.8906876332644379</v>
+        <v>0.8906876332644862</v>
       </c>
       <c r="Q3">
-        <v>7.091324389062589</v>
+        <v>7.091324389061996</v>
       </c>
       <c r="R3">
-        <v>-119.1713773550799</v>
+        <v>-119.1713773550764</v>
       </c>
       <c r="S3">
-        <v>171.7794727726615</v>
+        <v>171.779472772662</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -10623,55 +10623,55 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.709154423937071</v>
+        <v>3.70915442393685</v>
       </c>
       <c r="D4">
-        <v>3.709154423937071</v>
+        <v>3.70915442393685</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>42.82962610251919</v>
+        <v>42.82962610251664</v>
       </c>
       <c r="G4">
-        <v>42.82962610251919</v>
+        <v>42.82962610251664</v>
       </c>
       <c r="H4">
-        <v>3.756194024324173</v>
+        <v>0.7039710804487342</v>
       </c>
       <c r="I4">
-        <v>2.351750953160726</v>
+        <v>-1166.347687233957</v>
       </c>
       <c r="J4">
-        <v>0.6277319163570267</v>
+        <v>0.6277319164170393</v>
       </c>
       <c r="K4">
-        <v>2.898438697948214</v>
+        <v>2.898438698064163</v>
       </c>
       <c r="L4">
-        <v>0.6277319163638756</v>
+        <v>0.6277319163551763</v>
       </c>
       <c r="M4">
-        <v>2.898438697960007</v>
+        <v>2.898438697974897</v>
       </c>
       <c r="N4">
-        <v>0.952627964803209</v>
+        <v>0.952627964803233</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.9526279648047552</v>
+        <v>0.9526279648048037</v>
       </c>
       <c r="Q4">
-        <v>-1.246552855372904E-11</v>
+        <v>-1.235995963431423E-11</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>-179.9999999999812</v>
+        <v>-179.9999999999817</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -10715,22 +10715,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9526279647942854</v>
+        <v>0.9526279647943093</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.952627964813679</v>
+        <v>0.9526279648137272</v>
       </c>
       <c r="Q5">
-        <v>4.60573654557223E-10</v>
+        <v>4.606840844166443E-10</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999999995312</v>
+        <v>179.9999999995307</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -10774,22 +10774,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9526279647942854</v>
+        <v>0.9526279647943093</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.952627964813679</v>
+        <v>0.9526279648137272</v>
       </c>
       <c r="Q6">
-        <v>4.605704837932582E-10</v>
+        <v>4.606716066476677E-10</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>179.9999999995312</v>
+        <v>179.9999999995306</v>
       </c>
     </row>
   </sheetData>
